--- a/Parsing_characteristis_and_photo/parsing_3dplitka/Керам-Трейд 12.12.24_с вариантами выбора.xlsx
+++ b/Parsing_characteristis_and_photo/parsing_3dplitka/Керам-Трейд 12.12.24_с вариантами выбора.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\parsing_3dplitka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEC402B-5F60-40C9-B45D-BE1B9237B7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E7931E-7777-4561-A207-1E47B1B70438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1938,7 +1938,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2185,6 +2185,25 @@
     <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="29" fillId="4" borderId="3" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Ввод  2 3 2 2 2 41" xfId="31" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2248,7 +2267,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -2278,7 +2297,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -2627,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT35"/>
+  <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -2798,207 +2817,71 @@
       </c>
       <c r="AR2" s="138"/>
     </row>
-    <row r="3" spans="1:46" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="121" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="122" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="M3" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="O3" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="S3" s="98" t="s">
-        <v>208</v>
-      </c>
-      <c r="T3" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="U3" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="V3" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="W3" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="X3" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y3" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z3" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA3" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB3" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC3" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD3" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE3" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF3" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG3" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH3" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI3" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ3" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK3" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="AL3" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM3" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="AN3" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO3" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP3" s="98" t="s">
-        <v>230</v>
-      </c>
-      <c r="AQ3" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="AR3" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="AS3" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT3" s="101" t="s">
-        <v>234</v>
-      </c>
+    <row r="3" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="141"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="147"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="148"/>
+      <c r="AL3" s="149"/>
+      <c r="AM3" s="150"/>
+      <c r="AN3" s="75"/>
+      <c r="AQ3" s="151"/>
+      <c r="AR3" s="75"/>
     </row>
     <row r="4" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>444</v>
-      </c>
+      <c r="A4" s="141"/>
       <c r="B4" s="66"/>
       <c r="C4" s="130"/>
-      <c r="D4" s="129" t="s">
-        <v>440</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="D4" s="142"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
-      <c r="I4" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="M4" s="132"/>
-      <c r="N4" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="126" t="s">
-        <v>428</v>
-      </c>
-      <c r="U4" s="127" t="s">
-        <v>429</v>
-      </c>
-      <c r="V4" s="127" t="s">
-        <v>429</v>
-      </c>
-      <c r="W4" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="X4" s="126" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="4"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="147"/>
+      <c r="T4" s="126"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="147"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="147"/>
+      <c r="Z4" s="144"/>
       <c r="AA4" s="94"/>
       <c r="AB4" s="57"/>
       <c r="AC4" s="57"/>
@@ -3007,334 +2890,359 @@
       <c r="AF4" s="57"/>
       <c r="AG4" s="66"/>
       <c r="AH4" s="66"/>
-      <c r="AI4" s="39" t="s">
+      <c r="AI4" s="146"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="148"/>
+      <c r="AL4" s="149"/>
+      <c r="AM4" s="150"/>
+      <c r="AN4" s="75"/>
+      <c r="AQ4" s="151"/>
+      <c r="AR4" s="75"/>
+    </row>
+    <row r="5" spans="1:46" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="122" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="M5" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O5" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="S5" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="T5" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="U5" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="V5" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="W5" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="X5" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y5" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z5" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA5" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB5" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC5" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD5" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE5" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF5" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG5" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH5" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI5" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ5" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK5" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL5" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM5" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN5" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO5" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP5" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ5" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR5" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS5" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT5" s="101" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="129" t="s">
+        <v>440</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M6" s="132"/>
+      <c r="N6" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="S6" s="41"/>
+      <c r="T6" s="126" t="s">
+        <v>428</v>
+      </c>
+      <c r="U6" s="127" t="s">
+        <v>429</v>
+      </c>
+      <c r="V6" s="127" t="s">
+        <v>429</v>
+      </c>
+      <c r="W6" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="X6" s="126" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="5" t="s">
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="AL4" s="136" t="s">
+      <c r="AL6" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="AM4" s="137"/>
-      <c r="AN4" s="138"/>
-      <c r="AQ4" s="139" t="s">
+      <c r="AM6" s="137"/>
+      <c r="AN6" s="138"/>
+      <c r="AQ6" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="AR4" s="138"/>
-    </row>
-    <row r="5" spans="1:46" s="116" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="102"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="106" t="s">
+      <c r="AR6" s="138"/>
+    </row>
+    <row r="7" spans="1:46" s="116" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="102"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K7" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L7" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="M5" s="107" t="s">
+      <c r="M7" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="N5" s="106" t="s">
+      <c r="N7" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="O5" s="107" t="s">
+      <c r="O7" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="P5" s="106" t="s">
+      <c r="P7" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="Q5" s="106" t="s">
+      <c r="Q7" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="R5" s="106" t="s">
+      <c r="R7" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="S5" s="106" t="s">
+      <c r="S7" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="T5" s="106" t="s">
+      <c r="T7" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="U5" s="106" t="s">
+      <c r="U7" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="V5" s="106" t="s">
+      <c r="V7" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="W5" s="106" t="s">
+      <c r="W7" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="X5" s="106" t="s">
+      <c r="X7" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="Y5" s="106" t="s">
+      <c r="Y7" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="Z5" s="106" t="s">
+      <c r="Z7" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="AA5" s="106" t="s">
+      <c r="AA7" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="AB5" s="108" t="s">
+      <c r="AB7" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="AC5" s="108" t="s">
+      <c r="AC7" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="AD5" s="108" t="s">
+      <c r="AD7" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="AE5" s="109" t="s">
+      <c r="AE7" s="109" t="s">
         <v>244</v>
       </c>
-      <c r="AF5" s="109" t="s">
+      <c r="AF7" s="109" t="s">
         <v>245</v>
       </c>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="111"/>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="111"/>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="115"/>
-    </row>
-    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J6" t="s">
-        <v>252</v>
-      </c>
-      <c r="K6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L6" t="s">
-        <v>253</v>
-      </c>
-      <c r="M6" t="s">
-        <v>254</v>
-      </c>
-      <c r="N6" t="s">
-        <v>169</v>
-      </c>
-      <c r="O6" t="s">
-        <v>255</v>
-      </c>
-      <c r="P6" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>161</v>
-      </c>
-      <c r="R6" t="s">
-        <v>257</v>
-      </c>
-      <c r="T6" t="s">
-        <v>258</v>
-      </c>
-      <c r="U6" t="s">
-        <v>259</v>
-      </c>
-      <c r="V6" t="s">
-        <v>259</v>
-      </c>
-      <c r="W6" t="s">
-        <v>260</v>
-      </c>
-      <c r="X6" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" t="s">
-        <v>271</v>
-      </c>
-      <c r="I7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M7" t="s">
-        <v>273</v>
-      </c>
-      <c r="N7" t="s">
-        <v>169</v>
-      </c>
-      <c r="O7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>161</v>
-      </c>
-      <c r="R7" t="s">
-        <v>257</v>
-      </c>
-      <c r="T7" t="s">
-        <v>258</v>
-      </c>
-      <c r="U7" t="s">
-        <v>259</v>
-      </c>
-      <c r="V7" t="s">
-        <v>259</v>
-      </c>
-      <c r="W7" t="s">
-        <v>260</v>
-      </c>
-      <c r="X7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>269</v>
-      </c>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="113"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="112"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="115"/>
     </row>
     <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="H8" t="s">
-        <v>275</v>
+      <c r="H8" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="I8" t="s">
         <v>157</v>
@@ -3346,10 +3254,10 @@
         <v>157</v>
       </c>
       <c r="L8" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="M8" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="N8" t="s">
         <v>169</v>
@@ -3399,6 +3307,9 @@
       <c r="AD8" t="s">
         <v>267</v>
       </c>
+      <c r="AE8" t="s">
+        <v>244</v>
+      </c>
       <c r="AF8" t="s">
         <v>268</v>
       </c>
@@ -3408,7 +3319,7 @@
     </row>
     <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
         <v>247</v>
@@ -3429,7 +3340,7 @@
         <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I9" t="s">
         <v>157</v>
@@ -3441,10 +3352,10 @@
         <v>157</v>
       </c>
       <c r="L9" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="M9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N9" t="s">
         <v>169</v>
@@ -3501,9 +3412,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
         <v>247</v>
@@ -3524,7 +3435,7 @@
         <v>250</v>
       </c>
       <c r="H10" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I10" t="s">
         <v>157</v>
@@ -3536,10 +3447,10 @@
         <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="N10" t="s">
         <v>169</v>
@@ -3589,9 +3500,6 @@
       <c r="AD10" t="s">
         <v>267</v>
       </c>
-      <c r="AE10" t="s">
-        <v>244</v>
-      </c>
       <c r="AF10" t="s">
         <v>268</v>
       </c>
@@ -3599,32 +3507,33 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="53" t="e">
-        <f>IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=D$1,E$1,IF(D7=D$2,E$2,)))))))))))))))))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="H11" s="118" t="s">
-        <v>288</v>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" t="s">
+        <v>279</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="J11" t="s">
         <v>252</v>
@@ -3633,19 +3542,19 @@
         <v>157</v>
       </c>
       <c r="L11" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="M11" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N11" t="s">
         <v>169</v>
       </c>
       <c r="O11" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="P11" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="Q11" t="s">
         <v>161</v>
@@ -3654,51 +3563,51 @@
         <v>257</v>
       </c>
       <c r="T11" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="U11" t="s">
         <v>259</v>
       </c>
       <c r="V11" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
       <c r="W11" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="X11" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="Y11" t="s">
         <v>262</v>
       </c>
       <c r="Z11" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AA11" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="AB11" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="AC11" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="AD11" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="AF11" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="AP11" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>281</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>248</v>
@@ -3706,18 +3615,17 @@
       <c r="D12" t="s">
         <v>86</v>
       </c>
-      <c r="E12" t="e">
-        <f>IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=D$1,E$1,IF(D7=D$2,E$2,)))))))))))))))))))))))</f>
-        <v>#REF!</v>
+      <c r="E12" t="s">
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="H12" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="I12" t="s">
         <v>157</v>
@@ -3729,16 +3637,16 @@
         <v>157</v>
       </c>
       <c r="L12" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="M12" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="N12" t="s">
         <v>169</v>
       </c>
       <c r="O12" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="P12" t="s">
         <v>256</v>
@@ -3750,67 +3658,74 @@
         <v>257</v>
       </c>
       <c r="T12" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="U12" t="s">
         <v>259</v>
       </c>
+      <c r="V12" t="s">
+        <v>259</v>
+      </c>
       <c r="W12" t="s">
-        <v>185</v>
+        <v>260</v>
+      </c>
+      <c r="X12" t="s">
+        <v>261</v>
       </c>
       <c r="Y12" t="s">
         <v>262</v>
       </c>
       <c r="Z12" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AA12" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="AB12" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="AC12" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="AD12" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="AE12" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="AF12" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="AP12" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="124"/>
+      <c r="C13" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E13" t="e">
-        <f>IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=D$1,E$1,IF(D7=D$2,E$2,)))))))))))))))))))))))</f>
+      <c r="E13" s="53" t="e">
+        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="H13" t="s">
-        <v>306</v>
+      <c r="H13" s="118" t="s">
+        <v>288</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
         <v>252</v>
@@ -3819,10 +3734,10 @@
         <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="M13" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="N13" t="s">
         <v>169</v>
@@ -3831,7 +3746,7 @@
         <v>291</v>
       </c>
       <c r="P13" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="Q13" t="s">
         <v>161</v>
@@ -3845,9 +3760,15 @@
       <c r="U13" t="s">
         <v>259</v>
       </c>
+      <c r="V13" t="s">
+        <v>123</v>
+      </c>
       <c r="W13" t="s">
         <v>185</v>
       </c>
+      <c r="X13" t="s">
+        <v>212</v>
+      </c>
       <c r="Y13" t="s">
         <v>262</v>
       </c>
@@ -3878,7 +3799,7 @@
     </row>
     <row r="14" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
         <v>248</v>
@@ -3887,7 +3808,7 @@
         <v>86</v>
       </c>
       <c r="E14" t="e">
-        <f>IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=D$1,E$1,IF(D7=D$2,E$2,)))))))))))))))))))))))</f>
+        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
         <v>#REF!</v>
       </c>
       <c r="F14" t="s">
@@ -3897,7 +3818,7 @@
         <v>287</v>
       </c>
       <c r="H14" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I14" t="s">
         <v>157</v>
@@ -3912,7 +3833,7 @@
         <v>253</v>
       </c>
       <c r="M14" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="N14" t="s">
         <v>169</v>
@@ -3968,7 +3889,7 @@
     </row>
     <row r="15" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
         <v>248</v>
@@ -3977,7 +3898,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="e">
-        <f>IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=D$1,E$1,IF(D7=D$2,E$2,)))))))))))))))))))))))</f>
+        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
         <v>#REF!</v>
       </c>
       <c r="F15" t="s">
@@ -3987,10 +3908,10 @@
         <v>287</v>
       </c>
       <c r="H15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
         <v>252</v>
@@ -3999,10 +3920,10 @@
         <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="M15" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="N15" t="s">
         <v>169</v>
@@ -4058,7 +3979,7 @@
     </row>
     <row r="16" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C16" t="s">
         <v>248</v>
@@ -4067,7 +3988,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="e">
-        <f>IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=D$1,E$1,IF(D7=D$2,E$2,)))))))))))))))))))))))</f>
+        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
         <v>#REF!</v>
       </c>
       <c r="F16" t="s">
@@ -4077,7 +3998,7 @@
         <v>287</v>
       </c>
       <c r="H16" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I16" t="s">
         <v>157</v>
@@ -4089,10 +4010,10 @@
         <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="M16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N16" t="s">
         <v>169</v>
@@ -4148,7 +4069,7 @@
     </row>
     <row r="17" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C17" t="s">
         <v>248</v>
@@ -4157,7 +4078,7 @@
         <v>86</v>
       </c>
       <c r="E17" t="e">
-        <f>IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=D$1,E$1,IF(D7=D$2,E$2,)))))))))))))))))))))))</f>
+        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
         <v>#REF!</v>
       </c>
       <c r="F17" t="s">
@@ -4167,7 +4088,7 @@
         <v>287</v>
       </c>
       <c r="H17" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I17" t="s">
         <v>129</v>
@@ -4191,7 +4112,7 @@
         <v>291</v>
       </c>
       <c r="P17" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="Q17" t="s">
         <v>161</v>
@@ -4238,7 +4159,7 @@
     </row>
     <row r="18" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
         <v>248</v>
@@ -4247,7 +4168,7 @@
         <v>86</v>
       </c>
       <c r="E18" t="e">
-        <f>IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=#REF!,#REF!,IF(D7=D$1,E$1,IF(D7=D$2,E$2,)))))))))))))))))))))))</f>
+        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
         <v>#REF!</v>
       </c>
       <c r="F18" t="s">
@@ -4257,10 +4178,10 @@
         <v>287</v>
       </c>
       <c r="H18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
         <v>252</v>
@@ -4269,10 +4190,10 @@
         <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="M18" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="N18" t="s">
         <v>169</v>
@@ -4289,24 +4210,15 @@
       <c r="R18" t="s">
         <v>257</v>
       </c>
-      <c r="S18" t="s">
-        <v>208</v>
-      </c>
       <c r="T18" t="s">
         <v>293</v>
       </c>
       <c r="U18" t="s">
         <v>259</v>
       </c>
-      <c r="V18" t="s">
-        <v>123</v>
-      </c>
       <c r="W18" t="s">
         <v>185</v>
       </c>
-      <c r="X18" t="s">
-        <v>212</v>
-      </c>
       <c r="Y18" t="s">
         <v>262</v>
       </c>
@@ -4337,31 +4249,29 @@
     </row>
     <row r="19" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="124" t="s">
-        <v>321</v>
-      </c>
-      <c r="C19" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" t="s">
         <v>248</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="G19" s="88" t="s">
-        <v>323</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>324</v>
+      <c r="E19" t="e">
+        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F19" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" t="s">
+        <v>317</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="J19" t="s">
         <v>252</v>
@@ -4370,19 +4280,19 @@
         <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="M19" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="N19" t="s">
         <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="P19" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="Q19" t="s">
         <v>161</v>
@@ -4390,58 +4300,46 @@
       <c r="R19" t="s">
         <v>257</v>
       </c>
-      <c r="S19" t="s">
-        <v>326</v>
-      </c>
       <c r="T19" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="U19" t="s">
         <v>259</v>
       </c>
-      <c r="V19" t="s">
-        <v>259</v>
-      </c>
       <c r="W19" t="s">
-        <v>260</v>
-      </c>
-      <c r="X19" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="Y19" t="s">
         <v>262</v>
       </c>
       <c r="Z19" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="AA19" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="AB19" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="AC19" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="AD19" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="AE19" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="AF19" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="AP19" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>335</v>
-      </c>
-      <c r="B20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
         <v>248</v>
@@ -4449,20 +4347,21 @@
       <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="E20" t="s">
-        <v>87</v>
+      <c r="E20" t="e">
+        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
+        <v>#REF!</v>
       </c>
       <c r="F20" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G20" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H20" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="J20" t="s">
         <v>252</v>
@@ -4474,16 +4373,16 @@
         <v>253</v>
       </c>
       <c r="M20" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="N20" t="s">
         <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="P20" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="Q20" t="s">
         <v>161</v>
@@ -4495,72 +4394,72 @@
         <v>208</v>
       </c>
       <c r="T20" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="U20" t="s">
         <v>259</v>
       </c>
       <c r="V20" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="W20" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="X20" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s">
         <v>262</v>
       </c>
       <c r="Z20" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="AA20" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="AB20" t="s">
         <v>296</v>
       </c>
       <c r="AC20" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="AD20" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="AE20" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="AF20" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="AP20" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>342</v>
-      </c>
-      <c r="B21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B21" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="85" t="s">
         <v>322</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="H21" t="s">
-        <v>343</v>
+      <c r="H21" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="I21" t="s">
         <v>157</v>
@@ -4572,10 +4471,10 @@
         <v>157</v>
       </c>
       <c r="L21" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="M21" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="N21" t="s">
         <v>169</v>
@@ -4640,7 +4539,7 @@
     </row>
     <row r="22" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B22" t="s">
         <v>321</v>
@@ -4661,7 +4560,7 @@
         <v>323</v>
       </c>
       <c r="H22" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I22" t="s">
         <v>157</v>
@@ -4676,7 +4575,7 @@
         <v>253</v>
       </c>
       <c r="M22" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="N22" t="s">
         <v>169</v>
@@ -4694,7 +4593,7 @@
         <v>257</v>
       </c>
       <c r="S22" t="s">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="T22" t="s">
         <v>258</v>
@@ -4715,25 +4614,25 @@
         <v>262</v>
       </c>
       <c r="Z22" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="AA22" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AB22" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="AC22" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AD22" t="s">
         <v>331</v>
       </c>
       <c r="AE22" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AF22" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AP22" t="s">
         <v>334</v>
@@ -4741,7 +4640,7 @@
     </row>
     <row r="23" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
         <v>321</v>
@@ -4762,7 +4661,7 @@
         <v>323</v>
       </c>
       <c r="H23" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I23" t="s">
         <v>157</v>
@@ -4777,7 +4676,7 @@
         <v>276</v>
       </c>
       <c r="M23" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="N23" t="s">
         <v>169</v>
@@ -4794,6 +4693,9 @@
       <c r="R23" t="s">
         <v>257</v>
       </c>
+      <c r="S23" t="s">
+        <v>326</v>
+      </c>
       <c r="T23" t="s">
         <v>258</v>
       </c>
@@ -4813,25 +4715,25 @@
         <v>262</v>
       </c>
       <c r="Z23" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="AA23" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AB23" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="AC23" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AD23" t="s">
         <v>331</v>
       </c>
       <c r="AE23" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AF23" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AP23" t="s">
         <v>334</v>
@@ -4839,7 +4741,7 @@
     </row>
     <row r="24" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B24" t="s">
         <v>321</v>
@@ -4860,7 +4762,7 @@
         <v>323</v>
       </c>
       <c r="H24" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I24" t="s">
         <v>157</v>
@@ -4872,10 +4774,10 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="N24" t="s">
         <v>169</v>
@@ -4893,7 +4795,7 @@
         <v>257</v>
       </c>
       <c r="S24" t="s">
-        <v>208</v>
+        <v>326</v>
       </c>
       <c r="T24" t="s">
         <v>258</v>
@@ -4914,25 +4816,25 @@
         <v>262</v>
       </c>
       <c r="Z24" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="AA24" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AB24" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="AC24" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AD24" t="s">
         <v>331</v>
       </c>
       <c r="AE24" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AF24" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AP24" t="s">
         <v>334</v>
@@ -4940,7 +4842,7 @@
     </row>
     <row r="25" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B25" t="s">
         <v>321</v>
@@ -4961,7 +4863,7 @@
         <v>323</v>
       </c>
       <c r="H25" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I25" t="s">
         <v>157</v>
@@ -4976,7 +4878,7 @@
         <v>276</v>
       </c>
       <c r="M25" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="N25" t="s">
         <v>169</v>
@@ -4993,9 +4895,6 @@
       <c r="R25" t="s">
         <v>257</v>
       </c>
-      <c r="S25" t="s">
-        <v>326</v>
-      </c>
       <c r="T25" t="s">
         <v>258</v>
       </c>
@@ -5015,25 +4914,25 @@
         <v>262</v>
       </c>
       <c r="Z25" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="AA25" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AB25" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="AC25" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AD25" t="s">
         <v>331</v>
       </c>
       <c r="AE25" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AF25" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AP25" t="s">
         <v>334</v>
@@ -5041,7 +4940,7 @@
     </row>
     <row r="26" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B26" t="s">
         <v>321</v>
@@ -5062,7 +4961,7 @@
         <v>323</v>
       </c>
       <c r="H26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I26" t="s">
         <v>157</v>
@@ -5074,10 +4973,10 @@
         <v>157</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s">
-        <v>337</v>
+        <v>273</v>
       </c>
       <c r="N26" t="s">
         <v>169</v>
@@ -5095,7 +4994,7 @@
         <v>257</v>
       </c>
       <c r="S26" t="s">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="T26" t="s">
         <v>258</v>
@@ -5116,25 +5015,25 @@
         <v>262</v>
       </c>
       <c r="Z26" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="AA26" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AB26" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="AC26" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AD26" t="s">
         <v>331</v>
       </c>
       <c r="AE26" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AF26" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AP26" t="s">
         <v>334</v>
@@ -5142,7 +5041,7 @@
     </row>
     <row r="27" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B27" t="s">
         <v>321</v>
@@ -5163,7 +5062,7 @@
         <v>323</v>
       </c>
       <c r="H27" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I27" t="s">
         <v>157</v>
@@ -5195,6 +5094,9 @@
       <c r="R27" t="s">
         <v>257</v>
       </c>
+      <c r="S27" t="s">
+        <v>326</v>
+      </c>
       <c r="T27" t="s">
         <v>258</v>
       </c>
@@ -5214,25 +5116,25 @@
         <v>262</v>
       </c>
       <c r="Z27" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="AA27" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AB27" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="AC27" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AD27" t="s">
         <v>331</v>
       </c>
       <c r="AE27" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AF27" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AP27" t="s">
         <v>334</v>
@@ -5240,7 +5142,7 @@
     </row>
     <row r="28" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B28" t="s">
         <v>321</v>
@@ -5261,7 +5163,7 @@
         <v>323</v>
       </c>
       <c r="H28" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I28" t="s">
         <v>157</v>
@@ -5276,7 +5178,7 @@
         <v>253</v>
       </c>
       <c r="M28" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="N28" t="s">
         <v>169</v>
@@ -5293,6 +5195,9 @@
       <c r="R28" t="s">
         <v>257</v>
       </c>
+      <c r="S28" t="s">
+        <v>326</v>
+      </c>
       <c r="T28" t="s">
         <v>258</v>
       </c>
@@ -5312,25 +5217,25 @@
         <v>262</v>
       </c>
       <c r="Z28" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="AA28" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AB28" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="AC28" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AD28" t="s">
         <v>331</v>
       </c>
       <c r="AE28" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AF28" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AP28" t="s">
         <v>334</v>
@@ -5338,7 +5243,7 @@
     </row>
     <row r="29" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B29" t="s">
         <v>321</v>
@@ -5359,7 +5264,7 @@
         <v>323</v>
       </c>
       <c r="H29" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I29" t="s">
         <v>157</v>
@@ -5371,10 +5276,10 @@
         <v>157</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s">
         <v>169</v>
@@ -5391,9 +5296,6 @@
       <c r="R29" t="s">
         <v>257</v>
       </c>
-      <c r="S29" t="s">
-        <v>208</v>
-      </c>
       <c r="T29" t="s">
         <v>258</v>
       </c>
@@ -5439,7 +5341,7 @@
     </row>
     <row r="30" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B30" t="s">
         <v>321</v>
@@ -5460,7 +5362,7 @@
         <v>323</v>
       </c>
       <c r="H30" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I30" t="s">
         <v>157</v>
@@ -5475,7 +5377,7 @@
         <v>253</v>
       </c>
       <c r="M30" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="N30" t="s">
         <v>169</v>
@@ -5492,9 +5394,6 @@
       <c r="R30" t="s">
         <v>257</v>
       </c>
-      <c r="S30" t="s">
-        <v>326</v>
-      </c>
       <c r="T30" t="s">
         <v>258</v>
       </c>
@@ -5514,25 +5413,25 @@
         <v>262</v>
       </c>
       <c r="Z30" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="AA30" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AB30" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="AC30" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AD30" t="s">
         <v>331</v>
       </c>
       <c r="AE30" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AF30" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AP30" t="s">
         <v>334</v>
@@ -5540,34 +5439,34 @@
     </row>
     <row r="31" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>363</v>
-      </c>
-      <c r="B31" s="124" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" t="s">
         <v>321</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" t="s">
         <v>248</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="85" t="s">
+      <c r="F31" t="s">
         <v>322</v>
       </c>
-      <c r="G31" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>365</v>
+      <c r="G31" t="s">
+        <v>323</v>
+      </c>
+      <c r="H31" t="s">
+        <v>360</v>
       </c>
       <c r="I31" t="s">
         <v>157</v>
       </c>
       <c r="J31" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
         <v>157</v>
@@ -5593,14 +5492,20 @@
       <c r="R31" t="s">
         <v>257</v>
       </c>
+      <c r="S31" t="s">
+        <v>208</v>
+      </c>
       <c r="T31" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="U31" t="s">
         <v>259</v>
       </c>
+      <c r="V31" t="s">
+        <v>259</v>
+      </c>
       <c r="W31" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="X31" t="s">
         <v>261</v>
@@ -5609,33 +5514,33 @@
         <v>262</v>
       </c>
       <c r="Z31" t="s">
-        <v>367</v>
+        <v>261</v>
       </c>
       <c r="AA31" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="AB31" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="AC31" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AD31" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="AE31" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="AF31" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="AP31" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B32" t="s">
         <v>321</v>
@@ -5653,16 +5558,16 @@
         <v>322</v>
       </c>
       <c r="G32" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="H32" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="I32" t="s">
         <v>157</v>
       </c>
       <c r="J32" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="K32" t="s">
         <v>157</v>
@@ -5671,7 +5576,7 @@
         <v>253</v>
       </c>
       <c r="M32" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="N32" t="s">
         <v>169</v>
@@ -5688,14 +5593,20 @@
       <c r="R32" t="s">
         <v>257</v>
       </c>
+      <c r="S32" t="s">
+        <v>326</v>
+      </c>
       <c r="T32" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="U32" t="s">
         <v>259</v>
       </c>
+      <c r="V32" t="s">
+        <v>259</v>
+      </c>
       <c r="W32" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="X32" t="s">
         <v>261</v>
@@ -5704,54 +5615,54 @@
         <v>262</v>
       </c>
       <c r="Z32" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="AA32" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="AB32" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="AC32" t="s">
         <v>330</v>
       </c>
       <c r="AD32" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="AE32" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="AF32" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="AP32" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B33" t="s">
+        <v>363</v>
+      </c>
+      <c r="B33" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="85" t="s">
         <v>322</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="88" t="s">
         <v>364</v>
       </c>
-      <c r="H33" t="s">
-        <v>378</v>
+      <c r="H33" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="I33" t="s">
         <v>157</v>
@@ -5763,10 +5674,10 @@
         <v>157</v>
       </c>
       <c r="L33" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="N33" t="s">
         <v>169</v>
@@ -5825,7 +5736,7 @@
     </row>
     <row r="34" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B34" t="s">
         <v>321</v>
@@ -5846,7 +5757,7 @@
         <v>364</v>
       </c>
       <c r="H34" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I34" t="s">
         <v>157</v>
@@ -5912,7 +5823,7 @@
         <v>371</v>
       </c>
       <c r="AF34" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AP34" t="s">
         <v>373</v>
@@ -5920,7 +5831,7 @@
     </row>
     <row r="35" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B35" t="s">
         <v>321</v>
@@ -5941,7 +5852,7 @@
         <v>364</v>
       </c>
       <c r="H35" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I35" t="s">
         <v>157</v>
@@ -5953,10 +5864,10 @@
         <v>157</v>
       </c>
       <c r="L35" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="N35" t="s">
         <v>169</v>
@@ -6010,6 +5921,196 @@
         <v>372</v>
       </c>
       <c r="AP35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>364</v>
+      </c>
+      <c r="H36" t="s">
+        <v>380</v>
+      </c>
+      <c r="I36" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" t="s">
+        <v>366</v>
+      </c>
+      <c r="K36" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" t="s">
+        <v>253</v>
+      </c>
+      <c r="M36" t="s">
+        <v>304</v>
+      </c>
+      <c r="N36" t="s">
+        <v>169</v>
+      </c>
+      <c r="O36" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>161</v>
+      </c>
+      <c r="R36" t="s">
+        <v>257</v>
+      </c>
+      <c r="T36" t="s">
+        <v>293</v>
+      </c>
+      <c r="U36" t="s">
+        <v>259</v>
+      </c>
+      <c r="W36" t="s">
+        <v>185</v>
+      </c>
+      <c r="X36" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>381</v>
+      </c>
+      <c r="B37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" t="s">
+        <v>364</v>
+      </c>
+      <c r="H37" t="s">
+        <v>382</v>
+      </c>
+      <c r="I37" t="s">
+        <v>157</v>
+      </c>
+      <c r="J37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K37" t="s">
+        <v>157</v>
+      </c>
+      <c r="L37" t="s">
+        <v>253</v>
+      </c>
+      <c r="M37" t="s">
+        <v>304</v>
+      </c>
+      <c r="N37" t="s">
+        <v>169</v>
+      </c>
+      <c r="O37" t="s">
+        <v>255</v>
+      </c>
+      <c r="P37" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>161</v>
+      </c>
+      <c r="R37" t="s">
+        <v>257</v>
+      </c>
+      <c r="T37" t="s">
+        <v>293</v>
+      </c>
+      <c r="U37" t="s">
+        <v>259</v>
+      </c>
+      <c r="W37" t="s">
+        <v>185</v>
+      </c>
+      <c r="X37" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP37" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6018,14 +6119,14 @@
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AL2:AN2"/>
     <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AQ6:AR6"/>
   </mergeCells>
-  <conditionalFormatting sqref="P2">
+  <conditionalFormatting sqref="P2:P4">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -8920,13 +9021,13 @@
     <mergeCell ref="Z39:AC39"/>
   </mergeCells>
   <conditionalFormatting sqref="N15:O36 N37 N38:O40">
-    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M40">
-    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12992,10 +13093,10 @@
     <mergeCell ref="AP40:AQ40"/>
   </mergeCells>
   <conditionalFormatting sqref="O2:O40">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37 Q37:X37">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A50" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/Parsing_characteristis_and_photo/parsing_3dplitka/Керам-Трейд 12.12.24_с вариантами выбора.xlsx
+++ b/Parsing_characteristis_and_photo/parsing_3dplitka/Керам-Трейд 12.12.24_с вариантами выбора.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\parsing_3dplitka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis2\Parsing_characteristis_and_photo\parsing_3dplitka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E7931E-7777-4561-A207-1E47B1B70438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E871E05C-CFD0-4C03-B88C-7547ED68BAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="446">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -2169,22 +2172,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="16" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="29" fillId="4" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2202,6 +2189,22 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="29" fillId="4" borderId="3" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="29" fillId="4" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2649,46 +2652,46 @@
   <dimension ref="A1:AT37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E12" sqref="E12:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.86328125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="12.73046875" style="55" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="29" customWidth="1"/>
-    <col min="8" max="8" width="66.1328125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="18.265625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="14.73046875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" style="23" customWidth="1"/>
-    <col min="12" max="13" width="10.59765625" style="31" customWidth="1"/>
-    <col min="14" max="15" width="13.86328125" style="23" customWidth="1"/>
-    <col min="16" max="25" width="12.3984375" style="23" customWidth="1"/>
-    <col min="26" max="26" width="6.1328125" style="32" customWidth="1"/>
-    <col min="27" max="27" width="9.59765625" style="32" customWidth="1"/>
-    <col min="28" max="28" width="8.3984375" style="57" customWidth="1"/>
-    <col min="29" max="29" width="7.73046875" style="57" customWidth="1"/>
-    <col min="30" max="32" width="7.265625" style="57" customWidth="1"/>
-    <col min="33" max="33" width="7.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="55" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="23" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" style="31" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" style="23" customWidth="1"/>
+    <col min="16" max="25" width="12.42578125" style="23" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="32" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="32" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" style="57" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" style="57" customWidth="1"/>
+    <col min="30" max="32" width="7.28515625" style="57" customWidth="1"/>
+    <col min="33" max="33" width="7.5703125" style="23" customWidth="1"/>
     <col min="34" max="34" width="11" style="23" customWidth="1"/>
-    <col min="35" max="35" width="6.1328125" style="23" customWidth="1"/>
-    <col min="36" max="36" width="7.265625" style="24" customWidth="1"/>
-    <col min="37" max="37" width="6.73046875" style="24" customWidth="1"/>
-    <col min="38" max="38" width="8.1328125" style="25" customWidth="1"/>
-    <col min="39" max="39" width="7.59765625" style="26" customWidth="1"/>
-    <col min="40" max="40" width="9.3984375" style="27" customWidth="1"/>
-    <col min="41" max="42" width="9.3984375" style="24" customWidth="1"/>
-    <col min="43" max="44" width="9.1328125" style="28" customWidth="1"/>
-    <col min="45" max="45" width="13.1328125" style="28" customWidth="1"/>
-    <col min="46" max="51" width="9.1328125" style="29" customWidth="1"/>
-    <col min="52" max="16384" width="9.1328125" style="29"/>
+    <col min="35" max="35" width="6.140625" style="23" customWidth="1"/>
+    <col min="36" max="36" width="7.28515625" style="24" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" style="24" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" style="25" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="26" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" style="27" customWidth="1"/>
+    <col min="41" max="42" width="9.42578125" style="24" customWidth="1"/>
+    <col min="43" max="44" width="9.140625" style="28" customWidth="1"/>
+    <col min="45" max="45" width="13.140625" style="28" customWidth="1"/>
+    <col min="46" max="51" width="9.140625" style="29" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:46" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="120"/>
       <c r="C1" s="77"/>
@@ -2723,17 +2726,17 @@
       <c r="AI1" s="23"/>
       <c r="AJ1" s="32"/>
       <c r="AK1" s="32"/>
-      <c r="AL1" s="133" t="s">
+      <c r="AL1" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="135"/>
+      <c r="AM1" s="145"/>
+      <c r="AN1" s="145"/>
+      <c r="AO1" s="146"/>
       <c r="AQ1" s="37"/>
       <c r="AR1" s="37"/>
       <c r="AS1" s="37"/>
     </row>
-    <row r="2" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="66"/>
       <c r="C2" s="130"/>
@@ -2807,40 +2810,40 @@
       <c r="AK2" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="AL2" s="136" t="s">
+      <c r="AL2" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="AM2" s="137"/>
-      <c r="AN2" s="138"/>
-      <c r="AQ2" s="139" t="s">
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="149"/>
+      <c r="AQ2" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="AR2" s="138"/>
-    </row>
-    <row r="3" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
+      <c r="AR2" s="149"/>
+    </row>
+    <row r="3" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="133"/>
       <c r="B3" s="66"/>
       <c r="C3" s="130"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
       <c r="F3" s="131"/>
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
-      <c r="L3" s="143"/>
+      <c r="L3" s="135"/>
       <c r="M3" s="75"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="147"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="139"/>
       <c r="T3" s="126"/>
       <c r="U3" s="127"/>
       <c r="V3" s="127"/>
-      <c r="W3" s="147"/>
+      <c r="W3" s="139"/>
       <c r="X3" s="126"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="144"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="136"/>
       <c r="AA3" s="94"/>
       <c r="AB3" s="57"/>
       <c r="AC3" s="57"/>
@@ -2849,39 +2852,39 @@
       <c r="AF3" s="57"/>
       <c r="AG3" s="66"/>
       <c r="AH3" s="66"/>
-      <c r="AI3" s="146"/>
+      <c r="AI3" s="138"/>
       <c r="AJ3" s="42"/>
-      <c r="AK3" s="148"/>
-      <c r="AL3" s="149"/>
-      <c r="AM3" s="150"/>
+      <c r="AK3" s="140"/>
+      <c r="AL3" s="141"/>
+      <c r="AM3" s="142"/>
       <c r="AN3" s="75"/>
-      <c r="AQ3" s="151"/>
+      <c r="AQ3" s="143"/>
       <c r="AR3" s="75"/>
     </row>
-    <row r="4" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="141"/>
+    <row r="4" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="133"/>
       <c r="B4" s="66"/>
       <c r="C4" s="130"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="143"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="135"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
-      <c r="L4" s="143"/>
+      <c r="L4" s="135"/>
       <c r="M4" s="75"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="146"/>
-      <c r="S4" s="147"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="139"/>
       <c r="T4" s="126"/>
       <c r="U4" s="127"/>
       <c r="V4" s="127"/>
-      <c r="W4" s="147"/>
+      <c r="W4" s="139"/>
       <c r="X4" s="126"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="144"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="136"/>
       <c r="AA4" s="94"/>
       <c r="AB4" s="57"/>
       <c r="AC4" s="57"/>
@@ -2890,16 +2893,16 @@
       <c r="AF4" s="57"/>
       <c r="AG4" s="66"/>
       <c r="AH4" s="66"/>
-      <c r="AI4" s="146"/>
+      <c r="AI4" s="138"/>
       <c r="AJ4" s="42"/>
-      <c r="AK4" s="148"/>
-      <c r="AL4" s="149"/>
-      <c r="AM4" s="150"/>
+      <c r="AK4" s="140"/>
+      <c r="AL4" s="141"/>
+      <c r="AM4" s="142"/>
       <c r="AN4" s="75"/>
-      <c r="AQ4" s="151"/>
+      <c r="AQ4" s="143"/>
       <c r="AR4" s="75"/>
     </row>
-    <row r="5" spans="1:46" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="121" t="s">
         <v>190</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>444</v>
       </c>
@@ -3115,17 +3118,17 @@
       <c r="AK6" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="AL6" s="136" t="s">
+      <c r="AL6" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="AM6" s="137"/>
-      <c r="AN6" s="138"/>
-      <c r="AQ6" s="139" t="s">
+      <c r="AM6" s="148"/>
+      <c r="AN6" s="149"/>
+      <c r="AQ6" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="AR6" s="138"/>
-    </row>
-    <row r="7" spans="1:46" s="116" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AR6" s="149"/>
+    </row>
+    <row r="7" spans="1:46" s="116" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="102"/>
       <c r="B7" s="123"/>
       <c r="C7" s="103"/>
@@ -3219,7 +3222,7 @@
       <c r="AS7" s="112"/>
       <c r="AT7" s="115"/>
     </row>
-    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>270</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>274</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>278</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>281</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -3711,9 +3714,8 @@
       <c r="D13" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="53" t="e">
-        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
-        <v>#REF!</v>
+      <c r="E13" t="s">
+        <v>87</v>
       </c>
       <c r="F13" s="85" t="s">
         <v>286</v>
@@ -3797,7 +3799,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -3807,9 +3809,8 @@
       <c r="D14" t="s">
         <v>86</v>
       </c>
-      <c r="E14" t="e">
-        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
-        <v>#REF!</v>
+      <c r="E14" t="s">
+        <v>87</v>
       </c>
       <c r="F14" t="s">
         <v>286</v>
@@ -3887,7 +3888,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>305</v>
       </c>
@@ -3897,9 +3898,8 @@
       <c r="D15" t="s">
         <v>86</v>
       </c>
-      <c r="E15" t="e">
-        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
-        <v>#REF!</v>
+      <c r="E15" t="s">
+        <v>87</v>
       </c>
       <c r="F15" t="s">
         <v>286</v>
@@ -3977,7 +3977,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>307</v>
       </c>
@@ -3987,9 +3987,8 @@
       <c r="D16" t="s">
         <v>86</v>
       </c>
-      <c r="E16" t="e">
-        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
-        <v>#REF!</v>
+      <c r="E16" t="s">
+        <v>87</v>
       </c>
       <c r="F16" t="s">
         <v>286</v>
@@ -4067,7 +4066,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -4077,9 +4076,8 @@
       <c r="D17" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="e">
-        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
-        <v>#REF!</v>
+      <c r="E17" t="s">
+        <v>87</v>
       </c>
       <c r="F17" t="s">
         <v>286</v>
@@ -4157,7 +4155,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>312</v>
       </c>
@@ -4167,9 +4165,8 @@
       <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="E18" t="e">
-        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
-        <v>#REF!</v>
+      <c r="E18" t="s">
+        <v>87</v>
       </c>
       <c r="F18" t="s">
         <v>286</v>
@@ -4247,7 +4244,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>316</v>
       </c>
@@ -4257,9 +4254,8 @@
       <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="E19" t="e">
-        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
-        <v>#REF!</v>
+      <c r="E19" t="s">
+        <v>87</v>
       </c>
       <c r="F19" t="s">
         <v>286</v>
@@ -4337,7 +4333,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>318</v>
       </c>
@@ -4347,9 +4343,8 @@
       <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="E20" t="e">
-        <f>IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=#REF!,#REF!,IF(D9=D$1,E$1,IF(D9=D$2,E$2,)))))))))))))))))))))))</f>
-        <v>#REF!</v>
+      <c r="E20" t="s">
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>286</v>
@@ -4436,7 +4431,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -4537,7 +4532,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>335</v>
       </c>
@@ -4638,7 +4633,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>342</v>
       </c>
@@ -4739,7 +4734,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>345</v>
       </c>
@@ -4840,7 +4835,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>347</v>
       </c>
@@ -4938,7 +4933,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>349</v>
       </c>
@@ -5039,7 +5034,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>351</v>
       </c>
@@ -5140,7 +5135,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>353</v>
       </c>
@@ -5241,7 +5236,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>355</v>
       </c>
@@ -5339,7 +5334,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>357</v>
       </c>
@@ -5437,7 +5432,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>359</v>
       </c>
@@ -5538,7 +5533,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>361</v>
       </c>
@@ -5639,7 +5634,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>363</v>
       </c>
@@ -5734,7 +5729,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>374</v>
       </c>
@@ -5829,7 +5824,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>377</v>
       </c>
@@ -5924,7 +5919,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>379</v>
       </c>
@@ -6019,7 +6014,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>381</v>
       </c>
@@ -6141,9 +6136,9 @@
       <selection activeCell="C40" sqref="C1:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6155,7 +6150,7 @@
         <v>С фруктами и едой;</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6167,7 +6162,7 @@
         <v>С посудой;</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6179,7 +6174,7 @@
         <v>С текстом;</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6191,7 +6186,7 @@
         <v>Под песок;</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6203,7 +6198,7 @@
         <v>Кракелюр;</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6215,7 +6210,7 @@
         <v>Под бамбук;</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6227,7 +6222,7 @@
         <v>С одуванчиками;</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6239,7 +6234,7 @@
         <v>Состаренная (рустик);</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6251,7 +6246,7 @@
         <v>Фотоплитка (с фотографией);</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6263,7 +6258,7 @@
         <v>С тюльпанами;</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6275,7 +6270,7 @@
         <v>С животными;</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6287,7 +6282,7 @@
         <v>Под дерево;</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6299,7 +6294,7 @@
         <v>Под кирпич;</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6311,7 +6306,7 @@
         <v>Под паркет;</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -6323,7 +6318,7 @@
         <v>Фасадная;</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -6335,7 +6330,7 @@
         <v>Зеркальная;</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -6347,7 +6342,7 @@
         <v>Под ламинат;</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -6359,7 +6354,7 @@
         <v>Под мрамор;</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -6371,7 +6366,7 @@
         <v>Под камень;</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -6383,7 +6378,7 @@
         <v>Под бетон;</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -6395,7 +6390,7 @@
         <v>Под мозаику;</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -6407,7 +6402,7 @@
         <v>Моноколор;</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -6419,7 +6414,7 @@
         <v>Ёлочка;</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -6431,7 +6426,7 @@
         <v>Под металл;</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -6443,7 +6438,7 @@
         <v>С рисунком;</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -6455,7 +6450,7 @@
         <v>Под обои;</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -6467,7 +6462,7 @@
         <v>Под оникс;</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -6479,7 +6474,7 @@
         <v>Под кожу;</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -6491,7 +6486,7 @@
         <v>Под травертин;</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -6503,7 +6498,7 @@
         <v>Под гальку;</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -6515,7 +6510,7 @@
         <v>С цветами;</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -6527,7 +6522,7 @@
         <v>С листьями;</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -6539,7 +6534,7 @@
         <v>С дельфинами;</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -6551,7 +6546,7 @@
         <v>Под ткань;</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -6563,7 +6558,7 @@
         <v>С розами;</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -6575,7 +6570,7 @@
         <v>Под цемент;</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -6587,7 +6582,7 @@
         <v>С ракушками;</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -6599,7 +6594,7 @@
         <v>С бабочками;</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -6611,7 +6606,7 @@
         <v>В клетку;</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -6632,40 +6627,40 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="55.86328125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="14.265625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="14.73046875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" style="23" customWidth="1"/>
-    <col min="13" max="15" width="12.3984375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="6.1328125" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.1328125" style="23" customWidth="1"/>
-    <col min="19" max="19" width="7.3984375" style="57" customWidth="1"/>
-    <col min="20" max="20" width="7.73046875" style="57" customWidth="1"/>
-    <col min="21" max="21" width="7.265625" style="57" customWidth="1"/>
-    <col min="22" max="22" width="6.1328125" style="23" customWidth="1"/>
-    <col min="23" max="23" width="11.86328125" style="29" customWidth="1"/>
-    <col min="24" max="24" width="7.265625" style="24" customWidth="1"/>
-    <col min="25" max="25" width="6.73046875" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.59765625" style="26" customWidth="1"/>
-    <col min="28" max="28" width="9.3984375" style="27" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.3984375" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.1328125" style="28" customWidth="1"/>
-    <col min="32" max="37" width="9.1328125" style="29" customWidth="1"/>
-    <col min="38" max="16384" width="9.1328125" style="29"/>
+    <col min="2" max="2" width="12.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="23" customWidth="1"/>
+    <col min="13" max="15" width="12.42578125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="57" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="57" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="57" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="23" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="29" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" style="24" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" style="26" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="28" customWidth="1"/>
+    <col min="32" max="37" width="9.140625" style="29" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="89"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -6689,62 +6684,62 @@
       <c r="T1" s="56"/>
       <c r="W1" s="19"/>
     </row>
-    <row r="2" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M2" s="63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M3" s="63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M4" s="63" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M5" s="63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M6" s="63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M7" s="63" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M8" s="63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M9" s="63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M10" s="64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M11" s="64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J13" s="67" t="s">
         <v>12</v>
       </c>
@@ -6752,7 +6747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J14" s="67" t="s">
         <v>14</v>
       </c>
@@ -6764,7 +6759,7 @@
       </c>
       <c r="O14" s="65"/>
     </row>
-    <row r="15" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J15" s="15" t="s">
         <v>17</v>
       </c>
@@ -6776,7 +6771,7 @@
       </c>
       <c r="O15" s="65"/>
     </row>
-    <row r="16" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J16" s="73" t="s">
         <v>20</v>
       </c>
@@ -6788,7 +6783,7 @@
       </c>
       <c r="O16" s="65"/>
     </row>
-    <row r="17" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="30" t="s">
         <v>23</v>
       </c>
@@ -6806,7 +6801,7 @@
       </c>
       <c r="O17" s="65"/>
     </row>
-    <row r="18" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="87" t="s">
         <v>28</v>
       </c>
@@ -6824,7 +6819,7 @@
       </c>
       <c r="O18" s="65"/>
     </row>
-    <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="30" t="s">
         <v>33</v>
       </c>
@@ -6841,7 +6836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="84" t="s">
         <v>38</v>
       </c>
@@ -6858,7 +6853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
         <v>43</v>
       </c>
@@ -6875,7 +6870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="30" t="s">
         <v>48</v>
       </c>
@@ -6893,7 +6888,7 @@
       </c>
       <c r="W22" s="80"/>
     </row>
-    <row r="23" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="30" t="s">
         <v>53</v>
       </c>
@@ -6911,7 +6906,7 @@
       </c>
       <c r="W23" s="80"/>
     </row>
-    <row r="24" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
@@ -6929,7 +6924,7 @@
       </c>
       <c r="W24" s="80"/>
     </row>
-    <row r="25" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
         <v>63</v>
       </c>
@@ -6947,7 +6942,7 @@
       </c>
       <c r="W25" s="80"/>
     </row>
-    <row r="26" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
         <v>68</v>
       </c>
@@ -6968,7 +6963,7 @@
       </c>
       <c r="W26" s="80"/>
     </row>
-    <row r="27" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="30" t="s">
         <v>74</v>
       </c>
@@ -6989,7 +6984,7 @@
       </c>
       <c r="W27" s="80"/>
     </row>
-    <row r="28" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="77"/>
       <c r="B28" s="77"/>
       <c r="C28" s="30" t="s">
@@ -7031,7 +7026,7 @@
       <c r="AD28" s="37"/>
       <c r="AE28" s="37"/>
     </row>
-    <row r="29" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="77"/>
       <c r="B29" s="77"/>
       <c r="C29" s="30" t="s">
@@ -7073,7 +7068,7 @@
       <c r="AD29" s="37"/>
       <c r="AE29" s="37"/>
     </row>
-    <row r="30" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77"/>
       <c r="B30" s="77"/>
       <c r="C30" s="30" t="s">
@@ -7115,7 +7110,7 @@
       <c r="AD30" s="37"/>
       <c r="AE30" s="37"/>
     </row>
-    <row r="31" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77"/>
       <c r="B31" s="77"/>
       <c r="C31" s="30" t="s">
@@ -7159,7 +7154,7 @@
       <c r="AD31" s="37"/>
       <c r="AE31" s="37"/>
     </row>
-    <row r="32" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="77"/>
       <c r="B32" s="77"/>
       <c r="C32" s="30" t="s">
@@ -7203,7 +7198,7 @@
       <c r="AD32" s="37"/>
       <c r="AE32" s="37"/>
     </row>
-    <row r="33" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="77"/>
       <c r="B33" s="77"/>
       <c r="C33" s="30" t="s">
@@ -7247,7 +7242,7 @@
       <c r="AD33" s="37"/>
       <c r="AE33" s="37"/>
     </row>
-    <row r="34" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="77"/>
       <c r="B34" s="77"/>
       <c r="C34" s="30" t="s">
@@ -7295,7 +7290,7 @@
       <c r="AD34" s="37"/>
       <c r="AE34" s="37"/>
     </row>
-    <row r="35" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="77"/>
       <c r="B35" s="77"/>
       <c r="C35" s="30" t="s">
@@ -7343,7 +7338,7 @@
       <c r="AD35" s="37"/>
       <c r="AE35" s="37"/>
     </row>
-    <row r="36" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="77"/>
       <c r="B36" s="77"/>
       <c r="C36" s="30" t="s">
@@ -7391,7 +7386,7 @@
       <c r="AD36" s="37"/>
       <c r="AE36" s="37"/>
     </row>
-    <row r="37" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78"/>
       <c r="B37" s="78"/>
       <c r="C37" s="30" t="s">
@@ -7448,7 +7443,7 @@
       <c r="AD37" s="37"/>
       <c r="AE37" s="37"/>
     </row>
-    <row r="38" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>384</v>
       </c>
@@ -7506,7 +7501,7 @@
       <c r="AD38" s="37"/>
       <c r="AE38" s="37"/>
     </row>
-    <row r="39" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>386</v>
       </c>
@@ -7555,16 +7550,16 @@
       <c r="Y39" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="Z39" s="133" t="s">
+      <c r="Z39" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="134"/>
-      <c r="AC39" s="135"/>
+      <c r="AA39" s="145"/>
+      <c r="AB39" s="145"/>
+      <c r="AC39" s="146"/>
       <c r="AD39" s="37"/>
       <c r="AE39" s="37"/>
     </row>
-    <row r="40" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>388</v>
       </c>
@@ -7620,17 +7615,17 @@
       <c r="Y40" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="Z40" s="136" t="s">
+      <c r="Z40" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="AA40" s="134"/>
-      <c r="AB40" s="135"/>
-      <c r="AD40" s="140" t="s">
+      <c r="AA40" s="145"/>
+      <c r="AB40" s="146"/>
+      <c r="AD40" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="AE40" s="135"/>
-    </row>
-    <row r="41" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE40" s="146"/>
+    </row>
+    <row r="41" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
         <v>392</v>
       </c>
@@ -7728,7 +7723,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="30" t="s">
         <v>248</v>
@@ -7792,7 +7787,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="30" t="s">
         <v>248</v>
@@ -7856,7 +7851,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="30" t="s">
         <v>248</v>
@@ -7918,7 +7913,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="30" t="s">
         <v>248</v>
@@ -7980,7 +7975,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="30" t="s">
         <v>248</v>
@@ -8042,7 +8037,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -8096,7 +8091,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -8150,7 +8145,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -8204,7 +8199,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="50" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -8258,7 +8253,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="51" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -8312,7 +8307,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -8366,7 +8361,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="53" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -8420,7 +8415,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -8474,7 +8469,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="55" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -8528,7 +8523,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="56" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -8582,7 +8577,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -8636,7 +8631,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
@@ -8690,7 +8685,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="59" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
@@ -8744,7 +8739,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -8798,7 +8793,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="61" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -8852,7 +8847,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="62" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -8906,7 +8901,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="63" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -8960,7 +8955,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="64" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -9042,42 +9037,42 @@
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="55" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="66.1328125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="18.265625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="14.73046875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="23" customWidth="1"/>
-    <col min="11" max="12" width="10.59765625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="13.86328125" style="23" customWidth="1"/>
-    <col min="15" max="24" width="12.3984375" style="23" customWidth="1"/>
-    <col min="25" max="25" width="6.1328125" style="32" customWidth="1"/>
-    <col min="26" max="26" width="9.59765625" style="32" customWidth="1"/>
-    <col min="27" max="27" width="8.3984375" style="57" customWidth="1"/>
-    <col min="28" max="28" width="7.73046875" style="57" customWidth="1"/>
-    <col min="29" max="31" width="7.265625" style="57" customWidth="1"/>
-    <col min="32" max="32" width="7.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="66.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="23" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="31" customWidth="1"/>
+    <col min="13" max="14" width="13.85546875" style="23" customWidth="1"/>
+    <col min="15" max="24" width="12.42578125" style="23" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" style="32" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="32" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="57" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="57" customWidth="1"/>
+    <col min="29" max="31" width="7.28515625" style="57" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="23" customWidth="1"/>
     <col min="33" max="33" width="11" style="23" customWidth="1"/>
-    <col min="34" max="34" width="6.1328125" style="23" customWidth="1"/>
-    <col min="35" max="35" width="7.265625" style="24" customWidth="1"/>
-    <col min="36" max="36" width="6.73046875" style="24" customWidth="1"/>
-    <col min="37" max="37" width="8.1328125" style="25" customWidth="1"/>
-    <col min="38" max="38" width="7.59765625" style="26" customWidth="1"/>
-    <col min="39" max="39" width="9.3984375" style="27" customWidth="1"/>
-    <col min="40" max="41" width="9.3984375" style="24" customWidth="1"/>
-    <col min="42" max="43" width="9.1328125" style="28" customWidth="1"/>
-    <col min="44" max="44" width="13.1328125" style="28" customWidth="1"/>
-    <col min="45" max="49" width="9.1328125" style="29" customWidth="1"/>
-    <col min="50" max="16384" width="9.1328125" style="29"/>
+    <col min="34" max="34" width="6.140625" style="23" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" style="24" customWidth="1"/>
+    <col min="36" max="36" width="6.7109375" style="24" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" style="25" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" style="26" customWidth="1"/>
+    <col min="39" max="39" width="9.42578125" style="27" customWidth="1"/>
+    <col min="40" max="41" width="9.42578125" style="24" customWidth="1"/>
+    <col min="42" max="43" width="9.140625" style="28" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" style="28" customWidth="1"/>
+    <col min="45" max="49" width="9.140625" style="29" customWidth="1"/>
+    <col min="50" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="89"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -9109,62 +9104,62 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O2" s="63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O3" s="63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O4" s="63" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O5" s="63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O6" s="63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O7" s="63" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O8" s="63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O9" s="63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O10" s="64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O11" s="64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I13" s="67" t="s">
         <v>12</v>
       </c>
@@ -9172,7 +9167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I14" s="67" t="s">
         <v>14</v>
       </c>
@@ -9192,7 +9187,7 @@
       <c r="W14" s="65"/>
       <c r="X14" s="65"/>
     </row>
-    <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I15" s="15" t="s">
         <v>17</v>
       </c>
@@ -9212,7 +9207,7 @@
       <c r="W15" s="65"/>
       <c r="X15" s="65"/>
     </row>
-    <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I16" s="73" t="s">
         <v>20</v>
       </c>
@@ -9232,7 +9227,7 @@
       <c r="W16" s="65"/>
       <c r="X16" s="65"/>
     </row>
-    <row r="17" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="30" t="s">
         <v>23</v>
       </c>
@@ -9258,7 +9253,7 @@
       <c r="W17" s="65"/>
       <c r="X17" s="65"/>
     </row>
-    <row r="18" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="87" t="s">
         <v>28</v>
       </c>
@@ -9284,7 +9279,7 @@
       <c r="W18" s="65"/>
       <c r="X18" s="65"/>
     </row>
-    <row r="19" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="30" t="s">
         <v>33</v>
       </c>
@@ -9301,7 +9296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="84" t="s">
         <v>38</v>
       </c>
@@ -9318,7 +9313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
         <v>43</v>
       </c>
@@ -9335,7 +9330,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="30" t="s">
         <v>48</v>
       </c>
@@ -9352,7 +9347,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="30" t="s">
         <v>53</v>
       </c>
@@ -9369,7 +9364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
@@ -9386,7 +9381,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
         <v>63</v>
       </c>
@@ -9403,7 +9398,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
         <v>68</v>
       </c>
@@ -9423,7 +9418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="30" t="s">
         <v>74</v>
       </c>
@@ -9443,7 +9438,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="77"/>
       <c r="B28" s="77"/>
       <c r="C28" s="30" t="s">
@@ -9498,7 +9493,7 @@
       <c r="AQ28" s="37"/>
       <c r="AR28" s="37"/>
     </row>
-    <row r="29" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="77"/>
       <c r="B29" s="77"/>
       <c r="C29" s="30" t="s">
@@ -9553,7 +9548,7 @@
       <c r="AQ29" s="37"/>
       <c r="AR29" s="37"/>
     </row>
-    <row r="30" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77"/>
       <c r="B30" s="77"/>
       <c r="C30" s="30" t="s">
@@ -9608,7 +9603,7 @@
       <c r="AQ30" s="37"/>
       <c r="AR30" s="37"/>
     </row>
-    <row r="31" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77"/>
       <c r="B31" s="77"/>
       <c r="C31" s="30" t="s">
@@ -9665,7 +9660,7 @@
       <c r="AQ31" s="37"/>
       <c r="AR31" s="37"/>
     </row>
-    <row r="32" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="77"/>
       <c r="B32" s="77"/>
       <c r="C32" s="30" t="s">
@@ -9722,7 +9717,7 @@
       <c r="AQ32" s="37"/>
       <c r="AR32" s="37"/>
     </row>
-    <row r="33" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="77"/>
       <c r="B33" s="77"/>
       <c r="C33" s="30" t="s">
@@ -9779,7 +9774,7 @@
       <c r="AQ33" s="37"/>
       <c r="AR33" s="37"/>
     </row>
-    <row r="34" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="77"/>
       <c r="B34" s="77"/>
       <c r="C34" s="30" t="s">
@@ -9840,7 +9835,7 @@
       <c r="AQ34" s="37"/>
       <c r="AR34" s="37"/>
     </row>
-    <row r="35" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="77"/>
       <c r="B35" s="77"/>
       <c r="C35" s="30" t="s">
@@ -9901,7 +9896,7 @@
       <c r="AQ35" s="37"/>
       <c r="AR35" s="37"/>
     </row>
-    <row r="36" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="77"/>
       <c r="B36" s="77"/>
       <c r="C36" s="30" t="s">
@@ -9962,7 +9957,7 @@
       <c r="AQ36" s="37"/>
       <c r="AR36" s="37"/>
     </row>
-    <row r="37" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78"/>
       <c r="B37" s="78"/>
       <c r="C37" s="30" t="s">
@@ -10030,7 +10025,7 @@
       <c r="AQ37" s="37"/>
       <c r="AR37" s="37"/>
     </row>
-    <row r="38" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" s="30" t="s">
         <v>155</v>
@@ -10097,7 +10092,7 @@
       <c r="AQ38" s="37"/>
       <c r="AR38" s="37"/>
     </row>
-    <row r="39" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="77"/>
       <c r="C39" s="30" t="s">
@@ -10155,17 +10150,17 @@
       <c r="AJ39" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="AK39" s="133" t="s">
+      <c r="AK39" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="AL39" s="134"/>
-      <c r="AM39" s="134"/>
-      <c r="AN39" s="135"/>
+      <c r="AL39" s="145"/>
+      <c r="AM39" s="145"/>
+      <c r="AN39" s="146"/>
       <c r="AP39" s="37"/>
       <c r="AQ39" s="37"/>
       <c r="AR39" s="37"/>
     </row>
-    <row r="40" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="79"/>
       <c r="C40" s="30" t="s">
@@ -10226,17 +10221,17 @@
       <c r="AJ40" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AK40" s="136" t="s">
+      <c r="AK40" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="AL40" s="134"/>
-      <c r="AM40" s="135"/>
-      <c r="AP40" s="140" t="s">
+      <c r="AL40" s="145"/>
+      <c r="AM40" s="146"/>
+      <c r="AP40" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="AQ40" s="135"/>
-    </row>
-    <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ40" s="146"/>
+    </row>
+    <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
         <v>190</v>
       </c>
@@ -10373,7 +10368,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="116" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:45" s="116" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
       <c r="C42" s="104"/>
@@ -10466,7 +10461,7 @@
       <c r="AR42" s="112"/>
       <c r="AS42" s="115"/>
     </row>
-    <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>285</v>
       </c>
@@ -10556,7 +10551,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>316</v>
       </c>
@@ -10646,7 +10641,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>357</v>
       </c>
@@ -10741,7 +10736,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>359</v>
       </c>
@@ -10839,7 +10834,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>320</v>
       </c>
@@ -10937,7 +10932,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>342</v>
       </c>
@@ -11035,7 +11030,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>355</v>
       </c>
@@ -11133,7 +11128,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="117" t="s">
         <v>351</v>
       </c>
@@ -11231,7 +11226,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>353</v>
       </c>
@@ -11329,7 +11324,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>345</v>
       </c>
@@ -11427,7 +11422,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>357</v>
       </c>
@@ -11522,7 +11517,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -11620,7 +11615,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>320</v>
       </c>
@@ -11718,7 +11713,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>342</v>
       </c>
@@ -11816,7 +11811,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>355</v>
       </c>
@@ -11914,7 +11909,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>351</v>
       </c>
@@ -12012,7 +12007,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>353</v>
       </c>
@@ -12110,7 +12105,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>345</v>
       </c>
@@ -12208,7 +12203,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>361</v>
       </c>
@@ -12306,7 +12301,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>347</v>
       </c>
@@ -12401,7 +12396,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>349</v>
       </c>
@@ -12496,7 +12491,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>335</v>
       </c>
@@ -12591,7 +12586,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>363</v>
       </c>
@@ -12683,7 +12678,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>374</v>
       </c>
@@ -12775,7 +12770,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>381</v>
       </c>
@@ -12867,7 +12862,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>379</v>
       </c>
@@ -12959,7 +12954,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>377</v>
       </c>
@@ -13051,7 +13046,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>422</v>
       </c>
